--- a/Feature-Analysis/Resize Feature/s_08_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_08_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.6762962963</v>
+        <v>738157.6762962963</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.67695601855</v>
+        <v>738157.67695601855</v>
       </c>
       <c r="C3" s="0">
         <v>57.000002637505531</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.67708333337</v>
+        <v>738157.67708333337</v>
       </c>
       <c r="C4" s="0">
         <v>68.000003322958946</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.67762731481</v>
+        <v>738157.67762731481</v>
       </c>
       <c r="C5" s="0">
         <v>114.99999985098839</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.67776620365</v>
+        <v>738157.67776620365</v>
       </c>
       <c r="C6" s="0">
         <v>126.99999511241913</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.6784259259</v>
+        <v>738157.6784259259</v>
       </c>
       <c r="C7" s="0">
         <v>183.99999774992466</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.67856481485</v>
+        <v>738157.67856481485</v>
       </c>
       <c r="C8" s="0">
         <v>196.00000306963921</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.67896990746</v>
+        <v>738157.67896990746</v>
       </c>
       <c r="C9" s="0">
         <v>231.00000433623791</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.67923611111</v>
+        <v>738157.67923611111</v>
       </c>
       <c r="C10" s="0">
         <v>254.00000028312206</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.67972222227</v>
+        <v>738157.67972222227</v>
       </c>
       <c r="C11" s="0">
         <v>296.00000381469727</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.67998842592</v>
+        <v>738157.67998842592</v>
       </c>
       <c r="C12" s="0">
         <v>318.99999976158142</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.68053240736</v>
+        <v>738157.68053240736</v>
       </c>
       <c r="C13" s="0">
         <v>365.99999628961086</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.68071759259</v>
+        <v>738157.68071759259</v>
       </c>
       <c r="C14" s="0">
         <v>382.00000002980232</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.68127314816</v>
+        <v>738157.68127314816</v>
       </c>
       <c r="C15" s="0">
         <v>430.0000011920929</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.68140046299</v>
+        <v>738157.68140046299</v>
       </c>
       <c r="C16" s="0">
         <v>441.00000187754631</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.6818171296</v>
+        <v>738157.6818171296</v>
       </c>
       <c r="C17" s="0">
         <v>476.99999772012234</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.68223379634</v>
+        <v>738157.68223379634</v>
       </c>
       <c r="C18" s="0">
         <v>513.00000362098217</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.6825</v>
+        <v>738157.6825</v>
       </c>
       <c r="C19" s="0">
         <v>535.99999956786633</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.68291666661</v>
+        <v>738157.68291666661</v>
       </c>
       <c r="C20" s="0">
         <v>571.99999541044235</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.68365740741</v>
+        <v>738157.68365740741</v>
       </c>
       <c r="C21" s="0">
         <v>636.00000031292439</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.68365740741</v>
+        <v>738157.68365740741</v>
       </c>
       <c r="C22" s="0">
         <v>636.00000031292439</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.68394675921</v>
+        <v>738157.68394675921</v>
       </c>
       <c r="C23" s="0">
         <v>660.999995470047</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.68447916664</v>
+        <v>738157.68447916664</v>
       </c>
       <c r="C24" s="0">
         <v>706.99999742209911</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.68474537041</v>
+        <v>738157.68474537041</v>
       </c>
       <c r="C25" s="0">
         <v>730.00000342726707</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.68515046302</v>
+        <v>738157.68515046302</v>
       </c>
       <c r="C26" s="0">
         <v>765.00000469386578</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.68542824069</v>
+        <v>738157.68542824069</v>
       </c>
       <c r="C27" s="0">
         <v>788.99999521672726</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.68585648143</v>
+        <v>738157.68585648143</v>
       </c>
       <c r="C28" s="0">
         <v>825.99999569356441</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.68615740736</v>
+        <v>738157.68615740736</v>
       </c>
       <c r="C29" s="0">
         <v>851.99999548494816</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.6866319445</v>
+        <v>738157.6866319445</v>
       </c>
       <c r="C30" s="0">
         <v>893.00000444054604</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.68707175925</v>
+        <v>738157.68707175925</v>
       </c>
       <c r="C31" s="0">
         <v>930.99999949336052</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.68733796291</v>
+        <v>738157.68733796291</v>
       </c>
       <c r="C32" s="0">
         <v>953.99999544024467</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.68760416668</v>
+        <v>738157.68760416668</v>
       </c>
       <c r="C33" s="0">
         <v>977.00000144541264</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.68800925929</v>
+        <v>738157.68800925929</v>
       </c>
       <c r="C34" s="0">
         <v>1012.0000027120113</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.68827546295</v>
+        <v>738157.68827546295</v>
       </c>
       <c r="C35" s="0">
         <v>1034.9999986588955</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.68868055556</v>
+        <v>738157.68868055556</v>
       </c>
       <c r="C36" s="0">
         <v>1069.9999999254942</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.68907407403</v>
+        <v>738157.68907407403</v>
       </c>
       <c r="C37" s="0">
         <v>1103.9999965578318</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.68947916664</v>
+        <v>738157.68947916664</v>
       </c>
       <c r="C38" s="0">
         <v>1138.9999978244305</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.68990740739</v>
+        <v>738157.68990740739</v>
       </c>
       <c r="C39" s="0">
         <v>1175.9999983012676</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.6903125</v>
+        <v>738157.6903125</v>
       </c>
       <c r="C40" s="0">
         <v>1210.9999995678663</v>
